--- a/stats/HW1-6301-F18.xlsx
+++ b/stats/HW1-6301-F18.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc23d9933b7c3338/Desktop/Stats/Homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navar\OneDrive\Documents\UTD\assignments\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EF740EEC-CA0E-47CE-8963-31596B467539}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BEF5EA6D-9E02-49B9-9A10-B61F22BC5911}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t xml:space="preserve">Standard deviation (STDEV) = </t>
   </si>
@@ -438,6 +438,15 @@
   <si>
     <t>Set 5</t>
   </si>
+  <si>
+    <t>Navarurh Kumar</t>
+  </si>
+  <si>
+    <t>Name: Navarurh Kumar</t>
+  </si>
+  <si>
+    <t>There is a pretty strong negative correlation between clients and  sales so no, bringing in new clients seems to affect sales negatively as per the sample data</t>
+  </si>
 </sst>
 </file>
 
@@ -789,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -874,6 +883,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -966,6 +978,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -982,6 +997,1141 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Vs Clients</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Set 2'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Set 2'!$D$7:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Set 2'!$E$7:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9A4-4663-A37F-53ADC08135A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="491192128"/>
+        <c:axId val="491195736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="491192128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Clients</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491195736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="491195736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491192128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3F5ADB-3E69-47D2-A673-9DD2FC06578D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1307,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,12 +2483,12 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1434,10 +2584,12 @@
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1579,37 +2731,37 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1962,9 +3114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1979,28 +3129,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
@@ -2013,63 +3163,75 @@
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="20"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="20">
+        <f ca="1">AVERAGE(B13:B35)</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="20"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="20">
+        <f ca="1">_xlfn.VAR.P(B13:B35)</f>
+        <v>42.608695652173914</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="20"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="20">
+        <f ca="1">_xlfn.STDEV.P(B13:B35)</f>
+        <v>6.5275336576821967</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="20">
+        <f ca="1">H8/H6*100</f>
+        <v>25.105898683393065</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2087,236 +3249,383 @@
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <f ca="1">RANDBETWEEN(17,35)</f>
-        <v>31</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="C13" s="13">
+        <f ca="1">B13-$H$6</f>
+        <v>-2</v>
+      </c>
+      <c r="D13" s="13">
+        <f ca="1">C13^2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <f t="shared" ref="B14:B35" ca="1" si="0">RANDBETWEEN(17,35)</f>
-        <v>31</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="40">
+        <f t="shared" ref="C14:C36" ca="1" si="1">B14-$H$6</f>
+        <v>-7</v>
+      </c>
+      <c r="D14" s="40">
+        <f t="shared" ref="D14:D36" ca="1" si="2">C14^2</f>
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="C15" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D15" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="C16" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="C17" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="D17" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="D18" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="C19" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="D19" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="C20" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D20" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="C21" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="D21" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="C22" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="C23" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D23" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="C24" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D24" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="D25" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="C26" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D26" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="C27" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D27" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="D28" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="D29" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="C30" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D30" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="C31" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D31" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="C32" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D32" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="C33" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="D33" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="C34" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D34" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="C35" s="40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="D35" s="40">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>5</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="12"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="12">
+        <f ca="1">COUNT(B13:B35)</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>6</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="12"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="12">
+        <f ca="1">SUM(D13:D35)/H39</f>
+        <v>42.608695652173914</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>7</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="12"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="12">
+        <f ca="1">SQRT(H41)</f>
+        <v>6.5275336576821967</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2340,9 +3649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2359,19 +3666,21 @@
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="23" t="s">
@@ -2532,43 +3841,73 @@
       <c r="B21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="D21" s="11">
+        <f>AVERAGE(D7:D18)</f>
+        <v>18.833333333333332</v>
+      </c>
+      <c r="E21" s="11">
+        <f>AVERAGE(E7:E18)</f>
+        <v>55.5</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="11">
+        <f>MEDIAN(D7:D18)</f>
+        <v>19</v>
+      </c>
+      <c r="E22" s="11">
+        <f>MEDIAN(E7:E18)</f>
+        <v>55.5</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="D23" s="11">
+        <f>_xlfn.STDEV.S(D7:D18)</f>
+        <v>2.9180732539042853</v>
+      </c>
+      <c r="E23" s="11">
+        <f>_xlfn.STDEV.S(E7:E18)</f>
+        <v>5.7918437949805366</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="12">
+        <f>D23/D21*100</f>
+        <v>15.49419426851833</v>
+      </c>
+      <c r="E24" s="12">
+        <f>E23/E21*100</f>
+        <v>10.435754585550516</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
+      <c r="D25" s="51">
+        <f>_xlfn.COVARIANCE.S(D7:D18,E7:E18)</f>
+        <v>-11.181818181818182</v>
+      </c>
+      <c r="E25" s="52"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
+      <c r="D26" s="51">
+        <f>CORREL(D7:D18,E7:E18)</f>
+        <v>-0.66160594006464712</v>
+      </c>
+      <c r="E26" s="52"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
@@ -2576,8 +3915,10 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="C29" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="50"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
@@ -2585,8 +3926,10 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
+      <c r="C32" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="50"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
@@ -2594,32 +3937,34 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
+      <c r="B35" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
@@ -2636,6 +3981,7 @@
     <mergeCell ref="D26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2643,8 +3989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:I700"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,23 +4007,25 @@
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="4" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
@@ -2698,7 +4046,10 @@
       <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="26">
+        <f>AVERAGE(B7:B700)</f>
+        <v>124.89769452449568</v>
+      </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
@@ -2709,7 +4060,10 @@
       <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="26">
+        <f>MEDIAN(B7:B700)</f>
+        <v>125</v>
+      </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
@@ -2720,7 +4074,10 @@
       <c r="D10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="26"/>
+      <c r="E10" s="26">
+        <f>MAX(B7:B700)</f>
+        <v>249</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
@@ -2731,7 +4088,10 @@
       <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="26">
+        <f>MIN(B7:B700)</f>
+        <v>48</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
@@ -2742,7 +4102,10 @@
       <c r="D12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="e">
+        <f>_xlfn.PERCENTILE.INC(B7:B700,25)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
@@ -2790,10 +4153,10 @@
       <c r="B17" s="31">
         <v>125</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="48"/>
+      <c r="E17" s="49"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
@@ -2801,8 +4164,8 @@
       <c r="B18" s="31">
         <v>128</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
     </row>
@@ -6521,7 +7884,7 @@
   <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6539,27 +7902,27 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -6569,7 +7932,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f ca="1">RANDBETWEEN(56,100)</f>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>26</v>
@@ -6587,7 +7950,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <f t="shared" ref="A7:A70" ca="1" si="0">RANDBETWEEN(56,100)</f>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>32</v>
@@ -6601,7 +7964,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>33</v>
@@ -6615,7 +7978,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>34</v>
@@ -6629,7 +7992,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>35</v>
@@ -6654,26 +8017,26 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="C13" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>77</v>
@@ -6691,7 +8054,7 @@
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>27</v>
@@ -6700,194 +8063,194 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="62"/>
+        <v>69</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
+        <v>60</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65"/>
+        <v>63</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65"/>
+        <v>69</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="65"/>
+        <v>97</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
+        <v>64</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
+        <v>62</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="65"/>
+        <v>62</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="65"/>
+        <v>92</v>
+      </c>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
+        <v>99</v>
+      </c>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
+        <v>67</v>
+      </c>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="65"/>
+        <v>98</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="65"/>
+        <v>90</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="65"/>
+        <v>88</v>
+      </c>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="65"/>
+        <v>81</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="66"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="68"/>
+        <v>83</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
@@ -6897,13 +8260,13 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>28</v>
@@ -6914,203 +8277,203 @@
         <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="62"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <f t="shared" ca="1" si="0"/>
         <v>95</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="65"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="66"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="65"/>
+        <v>94</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="66"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="65"/>
+        <v>100</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="66"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="C40" s="63"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="65"/>
+        <v>89</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="66"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="C41" s="63"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="65"/>
+        <v>56</v>
+      </c>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="65"/>
+        <v>94</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="66"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="65"/>
+        <v>60</v>
+      </c>
+      <c r="C43" s="64"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="66"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="65"/>
+        <v>63</v>
+      </c>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="66"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="65"/>
+        <v>98</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="66"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="65"/>
+        <v>64</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="66"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="65"/>
+        <v>78</v>
+      </c>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="66"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="C48" s="63"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="65"/>
+        <v>57</v>
+      </c>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="66"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="65"/>
+        <v>60</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="66"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="65"/>
+        <v>67</v>
+      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="66"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="68"/>
+        <v>79</v>
+      </c>
+      <c r="C51" s="67"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="69"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -7121,37 +8484,37 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -7163,7 +8526,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -7174,127 +8537,127 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="18">
         <f t="shared" ref="A71:A134" ca="1" si="1">RANDBETWEEN(56,100)</f>
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -7306,115 +8669,115 @@
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
@@ -7426,265 +8789,265 @@
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="18">
         <f t="shared" ref="A135:A149" ca="1" si="2">RANDBETWEEN(56,100)</f>
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
@@ -7728,7 +9091,7 @@
   <dimension ref="A1:K1100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7740,19 +9103,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
